--- a/5yr_Projections/Excel Worksheets/ARKK.xlsx
+++ b/5yr_Projections/Excel Worksheets/ARKK.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke.campbell\Documents\GitHub\Stock_Analysis_Projects\5yr_Projections\Excel Worksheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Company X\Stock_Analysis_Projects\5yr_Projections\Excel Worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5953AC4E-07C7-4D9E-BB08-2B6405184E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36405" yWindow="2850" windowWidth="14475" windowHeight="10035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="ARKK" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="ARKK" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +50,21 @@
   </si>
   <si>
     <t>ARKK</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Equity</t>
+  </si>
+  <si>
+    <t>Sum of Funds Invested</t>
   </si>
 </sst>
 </file>
@@ -115,7 +133,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -508,30 +526,35 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -590,6 +613,3212 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[ARKK.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ARKK 5yr Performance Projection</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="63500" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="63500" cap="rnd">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Equity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2049.9989999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3152.4969000009901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4310.11859250415</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5525.62021201076</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6801.8956969910896</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8141.9836799449404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9549.0747219585101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11026.518908981699</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12577.8338279118</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14206.712941473599</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15805.156623970601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17595.398650012499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19475.150987114499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21448.889061319202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23521.312065496099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25697.354147458798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27982.1961574776</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30381.2779831554</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32900.311501035103</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35545.294175775402</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38322.523339270003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41238.611183710098</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43975.746750502301</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47174.490112280699</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50533.1674434046</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54059.775282407398</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57762.709986752503</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61650.787723380097</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65733.265458761394</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>70019.862998433993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>74520.786128492706</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>79246.750914131204</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>84209.0092130868</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>89419.375464732002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>94186.077907453597</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>99895.287616748406</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>105889.952102298</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>112184.34381746101</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>118793.44882398999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>125733.00247173999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>133019.526862325</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>140670.37018591401</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>148703.74802484</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>157138.78672233401</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>165995.56891966399</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>175295.181370078</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>183679.31690482501</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>193863.09907075</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>204556.06016118801</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>215783.658613187</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>227572.62576018801</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>239951.029475572</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>252948.34099832099</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>266595.50509989599</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>280925.01375938603</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>295970.983522341</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>311769.23672747501</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>328357.38679461199</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>343189.11581862799</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>361348.22842044401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4483-4163-87EE-3C5A56C3EA1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sum of Funds Invested</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="63500" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32000</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49000</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55000</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56000</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58000</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59000</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4483-4163-87EE-3C5A56C3EA1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="107939552"/>
+        <c:axId val="107936640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="107939552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107936640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="107936640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="350000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Dolar</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Amount</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="107939552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="50000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="BASIS User" refreshedDate="44506.472428356479" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="62">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I62" sheet="ARKK"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="61" count="62">
+        <n v="0"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="30"/>
+        <n v="31"/>
+        <n v="32"/>
+        <n v="33"/>
+        <n v="34"/>
+        <n v="35"/>
+        <n v="36"/>
+        <n v="37"/>
+        <n v="38"/>
+        <n v="39"/>
+        <n v="40"/>
+        <n v="41"/>
+        <n v="42"/>
+        <n v="43"/>
+        <n v="44"/>
+        <n v="45"/>
+        <n v="46"/>
+        <n v="47"/>
+        <n v="48"/>
+        <n v="49"/>
+        <n v="50"/>
+        <n v="51"/>
+        <n v="52"/>
+        <n v="53"/>
+        <n v="54"/>
+        <n v="55"/>
+        <n v="56"/>
+        <n v="57"/>
+        <n v="58"/>
+        <n v="59"/>
+        <n v="60"/>
+        <n v="61"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="100" maxValue="1961.20057910439"/>
+    </cacheField>
+    <cacheField name="Shares_Owned" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="193.816806856478"/>
+    </cacheField>
+    <cacheField name="Div_Returned" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="Total_Expenses" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2585.81195832716"/>
+    </cacheField>
+    <cacheField name="Equity" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="361348.22842044401" count="62">
+        <n v="0"/>
+        <n v="1000"/>
+        <n v="2049.9989999999998"/>
+        <n v="3152.4969000009901"/>
+        <n v="4310.11859250415"/>
+        <n v="5525.62021201076"/>
+        <n v="6801.8956969910896"/>
+        <n v="8141.9836799449404"/>
+        <n v="9549.0747219585101"/>
+        <n v="11026.518908981699"/>
+        <n v="12577.8338279118"/>
+        <n v="14206.712941473599"/>
+        <n v="15805.156623970601"/>
+        <n v="17595.398650012499"/>
+        <n v="19475.150987114499"/>
+        <n v="21448.889061319202"/>
+        <n v="23521.312065496099"/>
+        <n v="25697.354147458798"/>
+        <n v="27982.1961574776"/>
+        <n v="30381.2779831554"/>
+        <n v="32900.311501035103"/>
+        <n v="35545.294175775402"/>
+        <n v="38322.523339270003"/>
+        <n v="41238.611183710098"/>
+        <n v="43975.746750502301"/>
+        <n v="47174.490112280699"/>
+        <n v="50533.1674434046"/>
+        <n v="54059.775282407398"/>
+        <n v="57762.709986752503"/>
+        <n v="61650.787723380097"/>
+        <n v="65733.265458761394"/>
+        <n v="70019.862998433993"/>
+        <n v="74520.786128492706"/>
+        <n v="79246.750914131204"/>
+        <n v="84209.0092130868"/>
+        <n v="89419.375464732002"/>
+        <n v="94186.077907453597"/>
+        <n v="99895.287616748406"/>
+        <n v="105889.952102298"/>
+        <n v="112184.34381746101"/>
+        <n v="118793.44882398999"/>
+        <n v="125733.00247173999"/>
+        <n v="133019.526862325"/>
+        <n v="140670.37018591401"/>
+        <n v="148703.74802484"/>
+        <n v="157138.78672233401"/>
+        <n v="165995.56891966399"/>
+        <n v="175295.181370078"/>
+        <n v="183679.31690482501"/>
+        <n v="193863.09907075"/>
+        <n v="204556.06016118801"/>
+        <n v="215783.658613187"/>
+        <n v="227572.62576018801"/>
+        <n v="239951.029475572"/>
+        <n v="252948.34099832099"/>
+        <n v="266595.50509989599"/>
+        <n v="280925.01375938603"/>
+        <n v="295970.983522341"/>
+        <n v="311769.23672747501"/>
+        <n v="328357.38679461199"/>
+        <n v="343189.11581862799"/>
+        <n v="361348.22842044401"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Funds Invested" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="61000"/>
+    </cacheField>
+    <cacheField name="Fees Paid" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="5107.0686196880197"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="62">
+  <r>
+    <x v="0"/>
+    <s v="ARKK"/>
+    <n v="100"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="ARKK"/>
+    <n v="104.9999"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="1000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="ARKK"/>
+    <n v="110.249790000099"/>
+    <n v="19.5238185941129"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+    <n v="2000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="ARKK"/>
+    <n v="115.762169250314"/>
+    <n v="28.59413065547"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="3"/>
+    <n v="3000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="ARKK"/>
+    <n v="121.55016195066101"/>
+    <n v="37.232531321906102"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="4"/>
+    <n v="4000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="ARKK"/>
+    <n v="127.627548498032"/>
+    <n v="45.459587410946199"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="5"/>
+    <n v="5000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="ARKK"/>
+    <n v="134.00879829538499"/>
+    <n v="53.294886386507201"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="6"/>
+    <n v="6000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="ARKK"/>
+    <n v="140.70910420135601"/>
+    <n v="60.757082993895402"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="7"/>
+    <n v="7000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="ARKK"/>
+    <n v="147.74441870231999"/>
+    <n v="67.8639436741325"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="8"/>
+    <n v="8000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="ARKK"/>
+    <n v="155.131491893017"/>
+    <n v="74.632388863353697"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="9"/>
+    <n v="9000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="ARKK"/>
+    <n v="162.88791135617601"/>
+    <n v="81.078533277987603"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="10"/>
+    <n v="10000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="ARKK"/>
+    <n v="171.03214403607399"/>
+    <n v="87.217724281630296"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="11"/>
+    <n v="11000"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="ARKK"/>
+    <n v="179.583580205733"/>
+    <n v="92.410445492848496"/>
+    <n v="0"/>
+    <n v="111.877757863757"/>
+    <x v="12"/>
+    <n v="12000"/>
+    <n v="111.877757863757"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="ARKK"/>
+    <n v="188.56257963243999"/>
+    <n v="97.978883313580099"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="13"/>
+    <n v="13000"/>
+    <n v="111.877757863757"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="ARKK"/>
+    <n v="197.99052005148201"/>
+    <n v="103.28216247930401"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="14"/>
+    <n v="14000"/>
+    <n v="111.877757863757"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="ARKK"/>
+    <n v="207.88984806353599"/>
+    <n v="108.332909352134"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="15"/>
+    <n v="15000"/>
+    <n v="111.877757863757"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="ARKK"/>
+    <n v="218.28413257686501"/>
+    <n v="113.143149050296"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="16"/>
+    <n v="16000"/>
+    <n v="111.877757863757"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="ARKK"/>
+    <n v="229.198120921575"/>
+    <n v="117.72433407824499"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="17"/>
+    <n v="17000"/>
+    <n v="111.877757863757"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="ARKK"/>
+    <n v="240.657797769533"/>
+    <n v="122.08737159347"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="18"/>
+    <n v="18000"/>
+    <n v="111.877757863757"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="ARKK"/>
+    <n v="252.690447000212"/>
+    <n v="126.242649374902"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="19"/>
+    <n v="19000"/>
+    <n v="111.877757863757"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="ARKK"/>
+    <n v="265.32471665977602"/>
+    <n v="130.20006055475201"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="20"/>
+    <n v="20000"/>
+    <n v="111.877757863757"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="ARKK"/>
+    <n v="278.59068716804802"/>
+    <n v="133.96902717267301"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="21"/>
+    <n v="21000"/>
+    <n v="111.877757863757"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="ARKK"/>
+    <n v="292.51994293576303"/>
+    <n v="137.55852260830801"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="22"/>
+    <n v="22000"/>
+    <n v="111.877757863757"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="ARKK"/>
+    <n v="307.14564756260802"/>
+    <n v="140.97709294564501"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="23"/>
+    <n v="23000"/>
+    <n v="111.877757863757"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="ARKK"/>
+    <n v="322.50262279509099"/>
+    <n v="143.175549122955"/>
+    <n v="0"/>
+    <n v="324.753753782133"/>
+    <x v="24"/>
+    <n v="24000"/>
+    <n v="436.63151164589101"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="ARKK"/>
+    <n v="338.62743143222298"/>
+    <n v="146.27629909929101"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="25"/>
+    <n v="25000"/>
+    <n v="436.63151164589101"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="ARKK"/>
+    <n v="355.55846437640298"/>
+    <n v="149.22939712732301"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="26"/>
+    <n v="26000"/>
+    <n v="436.63151164589101"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="ARKK"/>
+    <n v="373.33603203675801"/>
+    <n v="152.041874118284"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="27"/>
+    <n v="27000"/>
+    <n v="436.63151164589101"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="ARKK"/>
+    <n v="392.00246030256397"/>
+    <n v="154.720426184486"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="28"/>
+    <n v="28000"/>
+    <n v="436.63151164589101"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="ARKK"/>
+    <n v="411.60219131523201"/>
+    <n v="157.271430581826"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="29"/>
+    <n v="29000"/>
+    <n v="436.63151164589101"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="ARKK"/>
+    <n v="432.18188927880198"/>
+    <n v="159.70096089313199"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="30"/>
+    <n v="30000"/>
+    <n v="436.63151164589101"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ARKK"/>
+    <n v="453.79055156085298"/>
+    <n v="162.01480148850899"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="31"/>
+    <n v="31000"/>
+    <n v="436.63151164589101"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ARKK"/>
+    <n v="476.47962534834397"/>
+    <n v="164.218461297115"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="32"/>
+    <n v="32000"/>
+    <n v="436.63151164589101"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="ARKK"/>
+    <n v="500.30313013613602"/>
+    <n v="166.31718692314601"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="33"/>
+    <n v="33000"/>
+    <n v="436.63151164589101"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ARKK"/>
+    <n v="525.31778633981298"/>
+    <n v="168.31597513725899"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="34"/>
+    <n v="34000"/>
+    <n v="436.63151164589101"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ARKK"/>
+    <n v="551.58315033901704"/>
+    <n v="170.21958477318501"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="35"/>
+    <n v="35000"/>
+    <n v="436.63151164589101"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="ARKK"/>
+    <n v="579.16175627281802"/>
+    <n v="170.755901172043"/>
+    <n v="0"/>
+    <n v="704.17691113944795"/>
+    <x v="36"/>
+    <n v="36000"/>
+    <n v="1140.8084227853401"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ARKK"/>
+    <n v="608.11926492470195"/>
+    <n v="172.48253451612899"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="37"/>
+    <n v="37000"/>
+    <n v="1140.8084227853401"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <s v="ARKK"/>
+    <n v="638.52462005167195"/>
+    <n v="174.12694879089099"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="38"/>
+    <n v="38000"/>
+    <n v="1140.8084227853401"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ARKK"/>
+    <n v="670.45021252963602"/>
+    <n v="175.69305911553101"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="39"/>
+    <n v="39000"/>
+    <n v="1140.8084227853401"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ARKK"/>
+    <n v="703.97205270590496"/>
+    <n v="177.18459417855601"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="40"/>
+    <n v="40000"/>
+    <n v="1140.8084227853401"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ARKK"/>
+    <n v="739.16995136914795"/>
+    <n v="178.60510511525601"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="41"/>
+    <n v="41000"/>
+    <n v="1140.8084227853401"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ARKK"/>
+    <n v="776.12770976765296"/>
+    <n v="179.957973962464"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="42"/>
+    <n v="42000"/>
+    <n v="1140.8084227853401"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ARKK"/>
+    <n v="814.93331912832605"/>
+    <n v="181.246421710709"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="43"/>
+    <n v="43000"/>
+    <n v="1140.8084227853401"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ARKK"/>
+    <n v="855.67917015142302"/>
+    <n v="182.47351597293601"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="44"/>
+    <n v="44000"/>
+    <n v="1140.8084227853401"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <s v="ARKK"/>
+    <n v="898.46227297982398"/>
+    <n v="183.64217828806801"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="45"/>
+    <n v="45000"/>
+    <n v="1140.8084227853401"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <s v="ARKK"/>
+    <n v="943.38448816654295"/>
+    <n v="184.755191076778"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="46"/>
+    <n v="46000"/>
+    <n v="1140.8084227853401"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <s v="ARKK"/>
+    <n v="990.55276919038101"/>
+    <n v="185.81520426603799"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="47"/>
+    <n v="47000"/>
+    <n v="1140.8084227853401"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <s v="ARKK"/>
+    <n v="1040.0794170971301"/>
+    <n v="185.431127566231"/>
+    <n v="0"/>
+    <n v="1380.4482385755"/>
+    <x v="48"/>
+    <n v="48000"/>
+    <n v="2521.2566613608501"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <s v="ARKK"/>
+    <n v="1092.0823478725699"/>
+    <n v="186.39259260780599"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="49"/>
+    <n v="49000"/>
+    <n v="2521.2566613608501"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <s v="ARKK"/>
+    <n v="1146.6853731838501"/>
+    <n v="187.30827447185899"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="50"/>
+    <n v="50000"/>
+    <n v="2521.2566613608501"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <s v="ARKK"/>
+    <n v="1204.01849515767"/>
+    <n v="188.18035326817599"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="51"/>
+    <n v="51000"/>
+    <n v="2521.2566613608501"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <s v="ARKK"/>
+    <n v="1264.21821589705"/>
+    <n v="189.01090529376501"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="52"/>
+    <n v="52000"/>
+    <n v="2521.2566613608501"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <s v="ARKK"/>
+    <n v="1327.4278624736901"/>
+    <n v="189.801907976233"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="53"/>
+    <n v="53000"/>
+    <n v="2521.2566613608501"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <s v="ARKK"/>
+    <n v="1393.79792816951"/>
+    <n v="190.555244581762"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="54"/>
+    <n v="54000"/>
+    <n v="2521.2566613608501"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <s v="ARKK"/>
+    <n v="1463.4864307800599"/>
+    <n v="191.27270869889799"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="55"/>
+    <n v="55000"/>
+    <n v="2521.2566613608501"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <s v="ARKK"/>
+    <n v="1536.65928883263"/>
+    <n v="191.95600850883699"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="56"/>
+    <n v="56000"/>
+    <n v="2521.2566613608501"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <s v="ARKK"/>
+    <n v="1613.4907166149801"/>
+    <n v="192.60677085236199"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="57"/>
+    <n v="57000"/>
+    <n v="2521.2566613608501"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <s v="ARKK"/>
+    <n v="1694.1636389550099"/>
+    <n v="193.22654510312299"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="58"/>
+    <n v="58000"/>
+    <n v="2521.2566613608501"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <s v="ARKK"/>
+    <n v="1778.87012673912"/>
+    <n v="193.816806856478"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="59"/>
+    <n v="59000"/>
+    <n v="2521.2566613608501"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <s v="ARKK"/>
+    <n v="1867.8118542059501"/>
+    <n v="192.92533539125401"/>
+    <n v="0"/>
+    <n v="2585.81195832716"/>
+    <x v="60"/>
+    <n v="60000"/>
+    <n v="5107.0686196880197"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <s v="ARKK"/>
+    <n v="1961.20057910439"/>
+    <n v="193.46072122133501"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="61"/>
+    <n v="61000"/>
+    <n v="5107.0686196880197"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:C65" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="63">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="63">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="62">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Equity" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Funds Invested" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -607,7 +3836,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -619,7 +3848,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -666,23 +3895,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -718,23 +3930,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -887,13 +4082,733 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A3:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2049.9989999999998</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3152.4969000009901</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4310.11859250415</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5525.62021201076</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6801.8956969910896</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8141.9836799449404</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9549.0747219585101</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>11026.518908981699</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>12577.8338279118</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>14206.712941473599</v>
+      </c>
+      <c r="C14" s="3">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15805.156623970601</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>17595.398650012499</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>19475.150987114499</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>21448.889061319202</v>
+      </c>
+      <c r="C18" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>23521.312065496099</v>
+      </c>
+      <c r="C19" s="3">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>25697.354147458798</v>
+      </c>
+      <c r="C20" s="3">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>27982.1961574776</v>
+      </c>
+      <c r="C21" s="3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>30381.2779831554</v>
+      </c>
+      <c r="C22" s="3">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>32900.311501035103</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>35545.294175775402</v>
+      </c>
+      <c r="C24" s="3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>38322.523339270003</v>
+      </c>
+      <c r="C25" s="3">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>41238.611183710098</v>
+      </c>
+      <c r="C26" s="3">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>43975.746750502301</v>
+      </c>
+      <c r="C27" s="3">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>47174.490112280699</v>
+      </c>
+      <c r="C28" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>50533.1674434046</v>
+      </c>
+      <c r="C29" s="3">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>54059.775282407398</v>
+      </c>
+      <c r="C30" s="3">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>57762.709986752503</v>
+      </c>
+      <c r="C31" s="3">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>61650.787723380097</v>
+      </c>
+      <c r="C32" s="3">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>65733.265458761394</v>
+      </c>
+      <c r="C33" s="3">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>70019.862998433993</v>
+      </c>
+      <c r="C34" s="3">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>74520.786128492706</v>
+      </c>
+      <c r="C35" s="3">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>79246.750914131204</v>
+      </c>
+      <c r="C36" s="3">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>84209.0092130868</v>
+      </c>
+      <c r="C37" s="3">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>89419.375464732002</v>
+      </c>
+      <c r="C38" s="3">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>94186.077907453597</v>
+      </c>
+      <c r="C39" s="3">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>99895.287616748406</v>
+      </c>
+      <c r="C40" s="3">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>105889.952102298</v>
+      </c>
+      <c r="C41" s="3">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>112184.34381746101</v>
+      </c>
+      <c r="C42" s="3">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>118793.44882398999</v>
+      </c>
+      <c r="C43" s="3">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>125733.00247173999</v>
+      </c>
+      <c r="C44" s="3">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>133019.526862325</v>
+      </c>
+      <c r="C45" s="3">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>140670.37018591401</v>
+      </c>
+      <c r="C46" s="3">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3">
+        <v>148703.74802484</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3">
+        <v>157138.78672233401</v>
+      </c>
+      <c r="C48" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3">
+        <v>165995.56891966399</v>
+      </c>
+      <c r="C49" s="3">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3">
+        <v>175295.181370078</v>
+      </c>
+      <c r="C50" s="3">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3">
+        <v>183679.31690482501</v>
+      </c>
+      <c r="C51" s="3">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3">
+        <v>193863.09907075</v>
+      </c>
+      <c r="C52" s="3">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3">
+        <v>204556.06016118801</v>
+      </c>
+      <c r="C53" s="3">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3">
+        <v>215783.658613187</v>
+      </c>
+      <c r="C54" s="3">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3">
+        <v>227572.62576018801</v>
+      </c>
+      <c r="C55" s="3">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3">
+        <v>239951.029475572</v>
+      </c>
+      <c r="C56" s="3">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3">
+        <v>252948.34099832099</v>
+      </c>
+      <c r="C57" s="3">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3">
+        <v>266595.50509989599</v>
+      </c>
+      <c r="C58" s="3">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3">
+        <v>280925.01375938603</v>
+      </c>
+      <c r="C59" s="3">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3">
+        <v>295970.983522341</v>
+      </c>
+      <c r="C60" s="3">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3">
+        <v>311769.23672747501</v>
+      </c>
+      <c r="C61" s="3">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3">
+        <v>328357.38679461199</v>
+      </c>
+      <c r="C62" s="3">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3">
+        <v>343189.11581862799</v>
+      </c>
+      <c r="C63" s="3">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>61</v>
+      </c>
+      <c r="B64" s="3">
+        <v>361348.22842044401</v>
+      </c>
+      <c r="C64" s="3">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="3">
+        <v>6470576.3537855977</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1891000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -919,18 +4834,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>104.9999</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -939,27 +4854,27 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>104.9999</v>
+        <v>110.249790000099</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>19.5238185941129</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -968,27 +4883,27 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1000</v>
+        <v>2049.9989999999998</v>
       </c>
       <c r="H3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>110.249790000099</v>
+        <v>115.762169250314</v>
       </c>
       <c r="D4">
-        <v>19.5238185941129</v>
+        <v>28.59413065547</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -997,27 +4912,27 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2049.9989999999998</v>
+        <v>3152.4969000009901</v>
       </c>
       <c r="H4">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5">
-        <v>115.762169250314</v>
+        <v>121.55016195066101</v>
       </c>
       <c r="D5">
-        <v>28.59413065547</v>
+        <v>37.232531321906102</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1026,27 +4941,27 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3152.4969000009901</v>
+        <v>4310.11859250415</v>
       </c>
       <c r="H5">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>121.55016195066101</v>
+        <v>127.627548498032</v>
       </c>
       <c r="D6">
-        <v>37.232531321906102</v>
+        <v>45.459587410946199</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1055,27 +4970,27 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4310.11859250415</v>
+        <v>5525.62021201076</v>
       </c>
       <c r="H6">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>127.627548498032</v>
+        <v>134.00879829538499</v>
       </c>
       <c r="D7">
-        <v>45.459587410946199</v>
+        <v>53.294886386507201</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1084,27 +4999,27 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>5525.62021201076</v>
+        <v>6801.8956969910896</v>
       </c>
       <c r="H7">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>134.00879829538499</v>
+        <v>140.70910420135601</v>
       </c>
       <c r="D8">
-        <v>53.294886386507201</v>
+        <v>60.757082993895402</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1113,27 +5028,27 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>6801.8956969910896</v>
+        <v>8141.9836799449404</v>
       </c>
       <c r="H8">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>140.70910420135601</v>
+        <v>147.74441870231999</v>
       </c>
       <c r="D9">
-        <v>60.757082993895402</v>
+        <v>67.8639436741325</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1142,27 +5057,27 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>8141.9836799449404</v>
+        <v>9549.0747219585101</v>
       </c>
       <c r="H9">
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>147.74441870231999</v>
+        <v>155.131491893017</v>
       </c>
       <c r="D10">
-        <v>67.8639436741325</v>
+        <v>74.632388863353697</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1171,27 +5086,27 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>9549.0747219585101</v>
+        <v>11026.518908981699</v>
       </c>
       <c r="H10">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
-        <v>155.131491893017</v>
+        <v>162.88791135617601</v>
       </c>
       <c r="D11">
-        <v>74.632388863353697</v>
+        <v>81.078533277987603</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1200,27 +5115,27 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>11026.518908981699</v>
+        <v>12577.8338279118</v>
       </c>
       <c r="H11">
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12">
-        <v>162.88791135617601</v>
+        <v>171.03214403607399</v>
       </c>
       <c r="D12">
-        <v>81.078533277987603</v>
+        <v>87.217724281630296</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1229,85 +5144,85 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>12577.8338279118</v>
+        <v>14206.712941473599</v>
       </c>
       <c r="H12">
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13">
-        <v>171.03214403607399</v>
+        <v>179.583580205733</v>
       </c>
       <c r="D13">
-        <v>87.217724281630296</v>
+        <v>92.410445492848496</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>111.877757863757</v>
       </c>
       <c r="G13">
-        <v>14206.712941473599</v>
+        <v>15805.156623970601</v>
       </c>
       <c r="H13">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>111.877757863757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14">
-        <v>179.583580205733</v>
+        <v>188.56257963243999</v>
       </c>
       <c r="D14">
-        <v>92.410445492848496</v>
+        <v>97.978883313580099</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>111.877757863757</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>15805.156623970601</v>
+        <v>17595.398650012499</v>
       </c>
       <c r="H14">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="I14">
         <v>111.877757863757</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15">
-        <v>188.56257963243999</v>
+        <v>197.99052005148201</v>
       </c>
       <c r="D15">
-        <v>97.978883313580099</v>
+        <v>103.28216247930401</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,27 +5231,27 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>17595.398650012499</v>
+        <v>19475.150987114499</v>
       </c>
       <c r="H15">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="I15">
         <v>111.877757863757</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16">
-        <v>197.99052005148201</v>
+        <v>207.88984806353599</v>
       </c>
       <c r="D16">
-        <v>103.28216247930401</v>
+        <v>108.332909352134</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1345,27 +5260,27 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>19475.150987114499</v>
+        <v>21448.889061319202</v>
       </c>
       <c r="H16">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="I16">
         <v>111.877757863757</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17">
-        <v>207.88984806353599</v>
+        <v>218.28413257686501</v>
       </c>
       <c r="D17">
-        <v>108.332909352134</v>
+        <v>113.143149050296</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1374,27 +5289,27 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>21448.889061319202</v>
+        <v>23521.312065496099</v>
       </c>
       <c r="H17">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="I17">
         <v>111.877757863757</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>218.28413257686501</v>
+        <v>229.198120921575</v>
       </c>
       <c r="D18">
-        <v>113.143149050296</v>
+        <v>117.72433407824499</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1403,27 +5318,27 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>23521.312065496099</v>
+        <v>25697.354147458798</v>
       </c>
       <c r="H18">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="I18">
         <v>111.877757863757</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19">
-        <v>229.198120921575</v>
+        <v>240.657797769533</v>
       </c>
       <c r="D19">
-        <v>117.72433407824499</v>
+        <v>122.08737159347</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1432,27 +5347,27 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25697.354147458798</v>
+        <v>27982.1961574776</v>
       </c>
       <c r="H19">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="I19">
         <v>111.877757863757</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20">
-        <v>240.657797769533</v>
+        <v>252.690447000212</v>
       </c>
       <c r="D20">
-        <v>122.08737159347</v>
+        <v>126.242649374902</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1461,27 +5376,27 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27982.1961574776</v>
+        <v>30381.2779831554</v>
       </c>
       <c r="H20">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="I20">
         <v>111.877757863757</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21">
-        <v>252.690447000212</v>
+        <v>265.32471665977602</v>
       </c>
       <c r="D21">
-        <v>126.242649374902</v>
+        <v>130.20006055475201</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1490,27 +5405,27 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>30381.2779831554</v>
+        <v>32900.311501035103</v>
       </c>
       <c r="H21">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="I21">
         <v>111.877757863757</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
       </c>
       <c r="C22">
-        <v>265.32471665977602</v>
+        <v>278.59068716804802</v>
       </c>
       <c r="D22">
-        <v>130.20006055475201</v>
+        <v>133.96902717267301</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1519,27 +5434,27 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>32900.311501035103</v>
+        <v>35545.294175775402</v>
       </c>
       <c r="H22">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="I22">
         <v>111.877757863757</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23">
-        <v>278.59068716804802</v>
+        <v>292.51994293576303</v>
       </c>
       <c r="D23">
-        <v>133.96902717267301</v>
+        <v>137.55852260830801</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1548,27 +5463,27 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>35545.294175775402</v>
+        <v>38322.523339270003</v>
       </c>
       <c r="H23">
-        <v>21000</v>
+        <v>22000</v>
       </c>
       <c r="I23">
         <v>111.877757863757</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24">
-        <v>292.51994293576303</v>
+        <v>307.14564756260802</v>
       </c>
       <c r="D24">
-        <v>137.55852260830801</v>
+        <v>140.97709294564501</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1577,85 +5492,85 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>38322.523339270003</v>
+        <v>41238.611183710098</v>
       </c>
       <c r="H24">
-        <v>22000</v>
+        <v>23000</v>
       </c>
       <c r="I24">
         <v>111.877757863757</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
       <c r="C25">
-        <v>307.14564756260802</v>
+        <v>322.50262279509099</v>
       </c>
       <c r="D25">
-        <v>140.97709294564501</v>
+        <v>143.175549122955</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>324.753753782133</v>
       </c>
       <c r="G25">
-        <v>41238.611183710098</v>
+        <v>43975.746750502301</v>
       </c>
       <c r="H25">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="I25">
-        <v>111.877757863757</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+        <v>436.63151164589101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26">
-        <v>322.50262279509099</v>
+        <v>338.62743143222298</v>
       </c>
       <c r="D26">
-        <v>143.175549122955</v>
+        <v>146.27629909929101</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>324.753753782133</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>43975.746750502301</v>
+        <v>47174.490112280699</v>
       </c>
       <c r="H26">
-        <v>24000</v>
+        <v>25000</v>
       </c>
       <c r="I26">
         <v>436.63151164589101</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27">
-        <v>338.62743143222298</v>
+        <v>355.55846437640298</v>
       </c>
       <c r="D27">
-        <v>146.27629909929101</v>
+        <v>149.22939712732301</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1664,27 +5579,27 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>47174.490112280699</v>
+        <v>50533.1674434046</v>
       </c>
       <c r="H27">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="I27">
         <v>436.63151164589101</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28">
-        <v>355.55846437640298</v>
+        <v>373.33603203675801</v>
       </c>
       <c r="D28">
-        <v>149.22939712732301</v>
+        <v>152.041874118284</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1693,27 +5608,27 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>50533.1674434046</v>
+        <v>54059.775282407398</v>
       </c>
       <c r="H28">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="I28">
         <v>436.63151164589101</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29">
-        <v>373.33603203675801</v>
+        <v>392.00246030256397</v>
       </c>
       <c r="D29">
-        <v>152.041874118284</v>
+        <v>154.720426184486</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1722,27 +5637,27 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>54059.775282407398</v>
+        <v>57762.709986752503</v>
       </c>
       <c r="H29">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="I29">
         <v>436.63151164589101</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
       <c r="C30">
-        <v>392.00246030256397</v>
+        <v>411.60219131523201</v>
       </c>
       <c r="D30">
-        <v>154.720426184486</v>
+        <v>157.271430581826</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1751,27 +5666,27 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>57762.709986752503</v>
+        <v>61650.787723380097</v>
       </c>
       <c r="H30">
-        <v>28000</v>
+        <v>29000</v>
       </c>
       <c r="I30">
         <v>436.63151164589101</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
       <c r="C31">
-        <v>411.60219131523201</v>
+        <v>432.18188927880198</v>
       </c>
       <c r="D31">
-        <v>157.271430581826</v>
+        <v>159.70096089313199</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1780,27 +5695,27 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>61650.787723380097</v>
+        <v>65733.265458761394</v>
       </c>
       <c r="H31">
-        <v>29000</v>
+        <v>30000</v>
       </c>
       <c r="I31">
         <v>436.63151164589101</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32">
-        <v>432.18188927880198</v>
+        <v>453.79055156085298</v>
       </c>
       <c r="D32">
-        <v>159.70096089313199</v>
+        <v>162.01480148850899</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1809,27 +5724,27 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>65733.265458761394</v>
+        <v>70019.862998433993</v>
       </c>
       <c r="H32">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="I32">
         <v>436.63151164589101</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33">
-        <v>453.79055156085298</v>
+        <v>476.47962534834397</v>
       </c>
       <c r="D33">
-        <v>162.01480148850899</v>
+        <v>164.218461297115</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1838,27 +5753,27 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>70019.862998433993</v>
+        <v>74520.786128492706</v>
       </c>
       <c r="H33">
-        <v>31000</v>
+        <v>32000</v>
       </c>
       <c r="I33">
         <v>436.63151164589101</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
       </c>
       <c r="C34">
-        <v>476.47962534834397</v>
+        <v>500.30313013613602</v>
       </c>
       <c r="D34">
-        <v>164.218461297115</v>
+        <v>166.31718692314601</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1867,27 +5782,27 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>74520.786128492706</v>
+        <v>79246.750914131204</v>
       </c>
       <c r="H34">
-        <v>32000</v>
+        <v>33000</v>
       </c>
       <c r="I34">
         <v>436.63151164589101</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
       <c r="C35">
-        <v>500.30313013613602</v>
+        <v>525.31778633981298</v>
       </c>
       <c r="D35">
-        <v>166.31718692314601</v>
+        <v>168.31597513725899</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1896,27 +5811,27 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>79246.750914131204</v>
+        <v>84209.0092130868</v>
       </c>
       <c r="H35">
-        <v>33000</v>
+        <v>34000</v>
       </c>
       <c r="I35">
         <v>436.63151164589101</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
       <c r="C36">
-        <v>525.31778633981298</v>
+        <v>551.58315033901704</v>
       </c>
       <c r="D36">
-        <v>168.31597513725899</v>
+        <v>170.21958477318501</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1925,85 +5840,85 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>84209.0092130868</v>
+        <v>89419.375464732002</v>
       </c>
       <c r="H36">
-        <v>34000</v>
+        <v>35000</v>
       </c>
       <c r="I36">
         <v>436.63151164589101</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37">
-        <v>551.58315033901704</v>
+        <v>579.16175627281802</v>
       </c>
       <c r="D37">
-        <v>170.21958477318501</v>
+        <v>170.755901172043</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>704.17691113944795</v>
       </c>
       <c r="G37">
-        <v>89419.375464732002</v>
+        <v>94186.077907453597</v>
       </c>
       <c r="H37">
-        <v>35000</v>
+        <v>36000</v>
       </c>
       <c r="I37">
-        <v>436.63151164589101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+        <v>1140.8084227853401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
       <c r="C38">
-        <v>579.16175627281802</v>
+        <v>608.11926492470195</v>
       </c>
       <c r="D38">
-        <v>170.755901172043</v>
+        <v>172.48253451612899</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>704.17691113944795</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>94186.077907453597</v>
+        <v>99895.287616748406</v>
       </c>
       <c r="H38">
-        <v>36000</v>
+        <v>37000</v>
       </c>
       <c r="I38">
         <v>1140.8084227853401</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
       <c r="C39">
-        <v>608.11926492470195</v>
+        <v>638.52462005167195</v>
       </c>
       <c r="D39">
-        <v>172.48253451612899</v>
+        <v>174.12694879089099</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2012,27 +5927,27 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>99895.287616748406</v>
+        <v>105889.952102298</v>
       </c>
       <c r="H39">
-        <v>37000</v>
+        <v>38000</v>
       </c>
       <c r="I39">
         <v>1140.8084227853401</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
       </c>
       <c r="C40">
-        <v>638.52462005167195</v>
+        <v>670.45021252963602</v>
       </c>
       <c r="D40">
-        <v>174.12694879089099</v>
+        <v>175.69305911553101</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2041,27 +5956,27 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>105889.952102298</v>
+        <v>112184.34381746101</v>
       </c>
       <c r="H40">
-        <v>38000</v>
+        <v>39000</v>
       </c>
       <c r="I40">
         <v>1140.8084227853401</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
       </c>
       <c r="C41">
-        <v>670.45021252963602</v>
+        <v>703.97205270590496</v>
       </c>
       <c r="D41">
-        <v>175.69305911553101</v>
+        <v>177.18459417855601</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2070,27 +5985,27 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>112184.34381746101</v>
+        <v>118793.44882398999</v>
       </c>
       <c r="H41">
-        <v>39000</v>
+        <v>40000</v>
       </c>
       <c r="I41">
         <v>1140.8084227853401</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
       </c>
       <c r="C42">
-        <v>703.97205270590496</v>
+        <v>739.16995136914795</v>
       </c>
       <c r="D42">
-        <v>177.18459417855601</v>
+        <v>178.60510511525601</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2099,27 +6014,27 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>118793.44882398999</v>
+        <v>125733.00247173999</v>
       </c>
       <c r="H42">
-        <v>40000</v>
+        <v>41000</v>
       </c>
       <c r="I42">
         <v>1140.8084227853401</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
       <c r="C43">
-        <v>739.16995136914795</v>
+        <v>776.12770976765296</v>
       </c>
       <c r="D43">
-        <v>178.60510511525601</v>
+        <v>179.957973962464</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2128,27 +6043,27 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>125733.00247173999</v>
+        <v>133019.526862325</v>
       </c>
       <c r="H43">
-        <v>41000</v>
+        <v>42000</v>
       </c>
       <c r="I43">
         <v>1140.8084227853401</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
       </c>
       <c r="C44">
-        <v>776.12770976765296</v>
+        <v>814.93331912832605</v>
       </c>
       <c r="D44">
-        <v>179.957973962464</v>
+        <v>181.246421710709</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2157,27 +6072,27 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>133019.526862325</v>
+        <v>140670.37018591401</v>
       </c>
       <c r="H44">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="I44">
         <v>1140.8084227853401</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
       <c r="C45">
-        <v>814.93331912832605</v>
+        <v>855.67917015142302</v>
       </c>
       <c r="D45">
-        <v>181.246421710709</v>
+        <v>182.47351597293601</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2186,27 +6101,27 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>140670.37018591401</v>
+        <v>148703.74802484</v>
       </c>
       <c r="H45">
-        <v>43000</v>
+        <v>44000</v>
       </c>
       <c r="I45">
         <v>1140.8084227853401</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
       </c>
       <c r="C46">
-        <v>855.67917015142302</v>
+        <v>898.46227297982398</v>
       </c>
       <c r="D46">
-        <v>182.47351597293601</v>
+        <v>183.64217828806801</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2215,27 +6130,27 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>148703.74802484</v>
+        <v>157138.78672233401</v>
       </c>
       <c r="H46">
-        <v>44000</v>
+        <v>45000</v>
       </c>
       <c r="I46">
         <v>1140.8084227853401</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47">
-        <v>898.46227297982398</v>
+        <v>943.38448816654295</v>
       </c>
       <c r="D47">
-        <v>183.64217828806801</v>
+        <v>184.755191076778</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2244,27 +6159,27 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>157138.78672233401</v>
+        <v>165995.56891966399</v>
       </c>
       <c r="H47">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="I47">
         <v>1140.8084227853401</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48">
-        <v>943.38448816654295</v>
+        <v>990.55276919038101</v>
       </c>
       <c r="D48">
-        <v>184.755191076778</v>
+        <v>185.81520426603799</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2273,85 +6188,85 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>165995.56891966399</v>
+        <v>175295.181370078</v>
       </c>
       <c r="H48">
-        <v>46000</v>
+        <v>47000</v>
       </c>
       <c r="I48">
         <v>1140.8084227853401</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
       </c>
       <c r="C49">
-        <v>990.55276919038101</v>
+        <v>1040.0794170971301</v>
       </c>
       <c r="D49">
-        <v>185.81520426603799</v>
+        <v>185.431127566231</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1380.4482385755</v>
       </c>
       <c r="G49">
-        <v>175295.181370078</v>
+        <v>183679.31690482501</v>
       </c>
       <c r="H49">
-        <v>47000</v>
+        <v>48000</v>
       </c>
       <c r="I49">
-        <v>1140.8084227853401</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+        <v>2521.2566613608501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50">
-        <v>1040.0794170971301</v>
+        <v>1092.0823478725699</v>
       </c>
       <c r="D50">
-        <v>185.431127566231</v>
+        <v>186.39259260780599</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1380.4482385755</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>183679.31690482501</v>
+        <v>193863.09907075</v>
       </c>
       <c r="H50">
-        <v>48000</v>
+        <v>49000</v>
       </c>
       <c r="I50">
         <v>2521.2566613608501</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51">
-        <v>1092.0823478725699</v>
+        <v>1146.6853731838501</v>
       </c>
       <c r="D51">
-        <v>186.39259260780599</v>
+        <v>187.30827447185899</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2360,27 +6275,27 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>193863.09907075</v>
+        <v>204556.06016118801</v>
       </c>
       <c r="H51">
-        <v>49000</v>
+        <v>50000</v>
       </c>
       <c r="I51">
         <v>2521.2566613608501</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52">
-        <v>1146.6853731838501</v>
+        <v>1204.01849515767</v>
       </c>
       <c r="D52">
-        <v>187.30827447185899</v>
+        <v>188.18035326817599</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2389,27 +6304,27 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>204556.06016118801</v>
+        <v>215783.658613187</v>
       </c>
       <c r="H52">
-        <v>50000</v>
+        <v>51000</v>
       </c>
       <c r="I52">
         <v>2521.2566613608501</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53">
-        <v>1204.01849515767</v>
+        <v>1264.21821589705</v>
       </c>
       <c r="D53">
-        <v>188.18035326817599</v>
+        <v>189.01090529376501</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2418,27 +6333,27 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>215783.658613187</v>
+        <v>227572.62576018801</v>
       </c>
       <c r="H53">
-        <v>51000</v>
+        <v>52000</v>
       </c>
       <c r="I53">
         <v>2521.2566613608501</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
       </c>
       <c r="C54">
-        <v>1264.21821589705</v>
+        <v>1327.4278624736901</v>
       </c>
       <c r="D54">
-        <v>189.01090529376501</v>
+        <v>189.801907976233</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2447,27 +6362,27 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>227572.62576018801</v>
+        <v>239951.029475572</v>
       </c>
       <c r="H54">
-        <v>52000</v>
+        <v>53000</v>
       </c>
       <c r="I54">
         <v>2521.2566613608501</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
       </c>
       <c r="C55">
-        <v>1327.4278624736901</v>
+        <v>1393.79792816951</v>
       </c>
       <c r="D55">
-        <v>189.801907976233</v>
+        <v>190.555244581762</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2476,27 +6391,27 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>239951.029475572</v>
+        <v>252948.34099832099</v>
       </c>
       <c r="H55">
-        <v>53000</v>
+        <v>54000</v>
       </c>
       <c r="I55">
         <v>2521.2566613608501</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
       </c>
       <c r="C56">
-        <v>1393.79792816951</v>
+        <v>1463.4864307800599</v>
       </c>
       <c r="D56">
-        <v>190.555244581762</v>
+        <v>191.27270869889799</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2505,27 +6420,27 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>252948.34099832099</v>
+        <v>266595.50509989599</v>
       </c>
       <c r="H56">
-        <v>54000</v>
+        <v>55000</v>
       </c>
       <c r="I56">
         <v>2521.2566613608501</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
       <c r="C57">
-        <v>1463.4864307800599</v>
+        <v>1536.65928883263</v>
       </c>
       <c r="D57">
-        <v>191.27270869889799</v>
+        <v>191.95600850883699</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2534,27 +6449,27 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>266595.50509989599</v>
+        <v>280925.01375938603</v>
       </c>
       <c r="H57">
-        <v>55000</v>
+        <v>56000</v>
       </c>
       <c r="I57">
         <v>2521.2566613608501</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58">
-        <v>1536.65928883263</v>
+        <v>1613.4907166149801</v>
       </c>
       <c r="D58">
-        <v>191.95600850883699</v>
+        <v>192.60677085236199</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2563,27 +6478,27 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>280925.01375938603</v>
+        <v>295970.983522341</v>
       </c>
       <c r="H58">
-        <v>56000</v>
+        <v>57000</v>
       </c>
       <c r="I58">
         <v>2521.2566613608501</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
       </c>
       <c r="C59">
-        <v>1613.4907166149801</v>
+        <v>1694.1636389550099</v>
       </c>
       <c r="D59">
-        <v>192.60677085236199</v>
+        <v>193.22654510312299</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2592,27 +6507,27 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>295970.983522341</v>
+        <v>311769.23672747501</v>
       </c>
       <c r="H59">
-        <v>57000</v>
+        <v>58000</v>
       </c>
       <c r="I59">
         <v>2521.2566613608501</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
       </c>
       <c r="C60">
-        <v>1694.1636389550099</v>
+        <v>1778.87012673912</v>
       </c>
       <c r="D60">
-        <v>193.22654510312299</v>
+        <v>193.816806856478</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2621,99 +6536,70 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>311769.23672747501</v>
+        <v>328357.38679461199</v>
       </c>
       <c r="H60">
-        <v>58000</v>
+        <v>59000</v>
       </c>
       <c r="I60">
         <v>2521.2566613608501</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61">
-        <v>1778.87012673912</v>
+        <v>1867.8118542059501</v>
       </c>
       <c r="D61">
-        <v>193.816806856478</v>
+        <v>192.92533539125401</v>
       </c>
       <c r="E61">
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>2585.81195832716</v>
       </c>
       <c r="G61">
-        <v>328357.38679461199</v>
+        <v>343189.11581862799</v>
       </c>
       <c r="H61">
-        <v>59000</v>
+        <v>60000</v>
       </c>
       <c r="I61">
-        <v>2521.2566613608501</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+        <v>5107.0686196880197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
       </c>
       <c r="C62">
-        <v>1867.8118542059501</v>
+        <v>1961.20057910439</v>
       </c>
       <c r="D62">
-        <v>192.92533539125401</v>
+        <v>193.46072122133501</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>2585.81195832716</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>343189.11581862799</v>
+        <v>361348.22842044401</v>
       </c>
       <c r="H62">
-        <v>60000</v>
+        <v>61000</v>
       </c>
       <c r="I62">
-        <v>5107.0686196880197</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63">
-        <v>1961.20057910439</v>
-      </c>
-      <c r="D63">
-        <v>193.46072122133501</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>361348.22842044401</v>
-      </c>
-      <c r="H63">
-        <v>61000</v>
-      </c>
-      <c r="I63">
         <v>5107.0686196880197</v>
       </c>
     </row>
